--- a/resources/templates/template_oci_recommendations.xlsx
+++ b/resources/templates/template_oci_recommendations.xlsx
@@ -8,13 +8,17 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Object Storage" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Database" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Load Balancer" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Block Storage" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Snapshot" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Compute Instance" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Cluster Kubernetes" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Object Storage Optimization" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Unused Service Decommisioning" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Software Infracstructure Servic" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Unused Resource" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Compute Instance Rightsizing" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Software Infracstructure Serv-1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Compute Instance Decommisioning" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Compute Instance Without Monito" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Block Storage Rightsizing" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Unused Storage" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Old Snapshot" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -145,7 +149,7 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -177,6 +181,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -184,8 +274,8 @@
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,8 +318,8 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,8 +401,8 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -349,8 +439,8 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,7 +477,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="49" zoomScaleNormal="49" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -421,4 +511,90 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>